--- a/ConvertedEqual/Alabama_Converted.xlsx
+++ b/ConvertedEqual/Alabama_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -789,6 +789,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U221"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2689,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2754,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2819,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2884,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2949,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3014,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3079,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3144,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3209,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3274,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3339,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3404,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3469,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3534,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3599,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3664,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916667</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3729,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3794,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3859,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3924,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3989,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4054,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4119,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4184,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4249,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4314,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4379,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4444,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4509,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4574,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4639,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4704,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4769,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4834,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4899,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4964,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -5029,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5094,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5159,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5224,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5289,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5354,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5419,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5484,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5549,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5614,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5679,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5744,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5809,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5874,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5939,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -6004,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -6069,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -6134,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>0.6153846153769231</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -6199,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="U81">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6264,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="U82">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6329,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6394,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6459,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6524,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="U86">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6589,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="U87">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6654,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="U88">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6719,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6784,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="U90">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6849,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6914,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6979,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -7044,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -7109,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -7174,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -7239,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="U97">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -7304,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="U98">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -7369,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -7434,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="U100">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7499,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="U101">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -7564,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7629,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7694,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="U104">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7759,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7824,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7889,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7954,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="U108">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -8019,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="U109">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -8084,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -8149,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="U111">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -8214,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="U112">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -8279,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -8344,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="U114">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -8409,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -8474,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -8539,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -8604,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="U118">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8669,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8734,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8799,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8864,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="U122">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8929,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8994,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -9059,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="U125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -9124,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -9189,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -9254,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -9319,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="U129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -9384,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="U130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -9449,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -9514,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="U132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -9579,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="U133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -9644,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="U134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -9709,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="U135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9774,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="U136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9839,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="U137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9904,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -9969,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="U139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -10034,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="U140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -10099,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="U141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -10164,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="U142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -10229,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -10294,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="U144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -10359,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -10424,7 +10460,7 @@
         <v>1</v>
       </c>
       <c r="U146">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -10489,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="U147">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -10554,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="U148">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -10619,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="U149">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -10684,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="U150">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -10749,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="U151">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -10814,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="U152">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10879,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="U153">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -10944,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="U154">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -11009,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="U155">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -11074,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="U156">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -11139,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="U157">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -11204,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="U158">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -11269,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="U159">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -11334,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="U160">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -11399,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="U161">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -11464,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="U162">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -11529,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="U163">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -11594,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="U164">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -11659,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="U165">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -11724,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="U166">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -11789,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="U167">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -11854,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="U168">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -11919,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="U169">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -11984,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="U170">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -12049,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="U171">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -12114,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="U172">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -12179,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="U173">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -12244,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="U174">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -12309,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="U175">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -12374,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="U176">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -12439,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="U177">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -12504,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="U178">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -12569,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="U179">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -12634,7 +12670,7 @@
         <v>1</v>
       </c>
       <c r="U180">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -12699,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="U181">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -12764,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="U182">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -12829,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="U183">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -12894,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="U184">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -12959,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="U185">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -13024,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="U186">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -13089,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="U187">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -13154,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -13219,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="U189">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -13284,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="U190">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -13349,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="U191">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -13414,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="U192">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -13479,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="U193">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -13544,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="U194">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -13609,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -13674,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="U196">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -13739,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="U197">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -13804,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="U198">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -13869,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="U199">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -13934,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="U200">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -13999,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="U201">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -14064,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -14129,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -14194,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="U204">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -14259,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -14324,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="U206">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -14389,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="U207">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -14454,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -14519,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="U209">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -14584,7 +14620,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:21">
@@ -14649,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="U211">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:21">
@@ -14714,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="U212">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -14779,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="U213">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -14844,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="U214">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:21">
@@ -14909,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="U215">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -14974,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="U216">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -15039,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="U217">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -15104,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="U218">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -15169,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="U219">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -15234,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="U220">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:21">
@@ -15299,7 +15335,787 @@
         <v>1</v>
       </c>
       <c r="U221">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>1</v>
+      </c>
+      <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>1</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>1</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>1</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>1</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>1</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>1</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>1</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>1</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>1</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>1</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>1</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
